--- a/biology/Zoologie/Cacatoès_aux_yeux_bleus/Cacatoès_aux_yeux_bleus.xlsx
+++ b/biology/Zoologie/Cacatoès_aux_yeux_bleus/Cacatoès_aux_yeux_bleus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cacato%C3%A8s_aux_yeux_bleus</t>
+          <t>Cacatoès_aux_yeux_bleus</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cacatua ophthalmica
 Le Cacatoès aux yeux bleus (Cacatua ophthalmica) est une espèce d'oiseau appartenant à la famille des Cacatuidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cacato%C3%A8s_aux_yeux_bleus</t>
+          <t>Cacatoès_aux_yeux_bleus</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est un grand cacatoès blanc (50 cm de long) avec une huppe érectile blanche et jaune, un bec et des pattes grises et un anneau saillant bleu clair dans une zone déplumée entourant les yeux.
 Les deux sexes sont très semblables. Les mâles ont souvent un iris brun foncé tandis que les femelles ont un iris brun rougeâtre mais la différence est minime et non fiable.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cacato%C3%A8s_aux_yeux_bleus</t>
+          <t>Cacatoès_aux_yeux_bleus</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est endémique dans les forêts des plaines et des collines de la Nouvelle-Bretagne à l'est de la Nouvelle-Guinée et c'est le seul cacatoès de l'Archipel Bismarck.
 </t>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cacato%C3%A8s_aux_yeux_bleus</t>
+          <t>Cacatoès_aux_yeux_bleus</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Population et conservation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un oiseau commun qui n'est pas protégé.
 </t>
